--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slpi</t>
+  </si>
+  <si>
+    <t>Plscr1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slpi</t>
-  </si>
-  <si>
-    <t>Plscr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H2">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I2">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J2">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.216224500000001</v>
+        <v>9.756319</v>
       </c>
       <c r="N2">
-        <v>12.432449</v>
+        <v>19.512638</v>
       </c>
       <c r="O2">
-        <v>0.2223845599234924</v>
+        <v>0.295493628717823</v>
       </c>
       <c r="P2">
-        <v>0.1638264648089691</v>
+        <v>0.2238692534330717</v>
       </c>
       <c r="Q2">
-        <v>3.780869362737001</v>
+        <v>1.5042243852605</v>
       </c>
       <c r="R2">
-        <v>22.685216176422</v>
+        <v>6.016897541042</v>
       </c>
       <c r="S2">
-        <v>0.0215941940200472</v>
+        <v>0.0005236009614983813</v>
       </c>
       <c r="T2">
-        <v>0.01604442569829461</v>
+        <v>0.0002646135616393336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H3">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I3">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J3">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>15.240735</v>
       </c>
       <c r="O3">
-        <v>0.1817450525843336</v>
+        <v>0.1538674606504335</v>
       </c>
       <c r="P3">
-        <v>0.2008321720153707</v>
+        <v>0.174857544439726</v>
       </c>
       <c r="Q3">
-        <v>3.089937095370001</v>
+        <v>0.7832696339775</v>
       </c>
       <c r="R3">
-        <v>27.80943385833</v>
+        <v>4.699617803865</v>
       </c>
       <c r="S3">
-        <v>0.01764797847944113</v>
+        <v>0.0002726459811991945</v>
       </c>
       <c r="T3">
-        <v>0.01966859790013199</v>
+        <v>0.0002066816988226425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H4">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I4">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J4">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.968023</v>
+        <v>4.769449333333334</v>
       </c>
       <c r="N4">
-        <v>11.904069</v>
+        <v>14.308348</v>
       </c>
       <c r="O4">
-        <v>0.1419554664766847</v>
+        <v>0.1444542650247977</v>
       </c>
       <c r="P4">
-        <v>0.156863827964389</v>
+        <v>0.1641602321849349</v>
       </c>
       <c r="Q4">
-        <v>2.413454757198</v>
+        <v>0.7353513134886668</v>
       </c>
       <c r="R4">
-        <v>21.721092814782</v>
+        <v>4.412107880932001</v>
       </c>
       <c r="S4">
-        <v>0.01378429278704617</v>
+        <v>0.0002559662365233391</v>
       </c>
       <c r="T4">
-        <v>0.01536253642205749</v>
+        <v>0.000194037470764078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H5">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I5">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J5">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7536305</v>
+        <v>2.1338745</v>
       </c>
       <c r="N5">
-        <v>3.507261</v>
+        <v>4.267749</v>
       </c>
       <c r="O5">
-        <v>0.06273588526458686</v>
+        <v>0.06462953079265144</v>
       </c>
       <c r="P5">
-        <v>0.0462163304102329</v>
+        <v>0.04896404999004943</v>
       </c>
       <c r="Q5">
-        <v>1.066603664493</v>
+        <v>0.32899970347275</v>
       </c>
       <c r="R5">
-        <v>6.399621986958</v>
+        <v>1.315998813891</v>
       </c>
       <c r="S5">
-        <v>0.006091838744960444</v>
+        <v>0.0001145205215119429</v>
       </c>
       <c r="T5">
-        <v>0.004526219131807936</v>
+        <v>5.787552985263727E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H6">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I6">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J6">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.037346333333333</v>
+        <v>7.928250666666667</v>
       </c>
       <c r="N6">
-        <v>18.112039</v>
+        <v>23.784752</v>
       </c>
       <c r="O6">
-        <v>0.2159852185911309</v>
+        <v>0.2401261745211317</v>
       </c>
       <c r="P6">
-        <v>0.2386682881105867</v>
+        <v>0.2728833832376104</v>
       </c>
       <c r="Q6">
-        <v>3.672071010938</v>
+        <v>1.222373723661333</v>
       </c>
       <c r="R6">
-        <v>33.048639098442</v>
+        <v>7.334242341968</v>
       </c>
       <c r="S6">
-        <v>0.02097279917870091</v>
+        <v>0.0004254924087729039</v>
       </c>
       <c r="T6">
-        <v>0.02337409660639784</v>
+        <v>0.0003225482858559804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.608226</v>
+        <v>0.1541795</v>
       </c>
       <c r="H7">
-        <v>1.824678</v>
+        <v>0.308359</v>
       </c>
       <c r="I7">
-        <v>0.0971029374857513</v>
+        <v>0.001771953472466866</v>
       </c>
       <c r="J7">
-        <v>0.09793549361516966</v>
+        <v>0.001182000464920668</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.897121</v>
+        <v>3.348881333333333</v>
       </c>
       <c r="N7">
-        <v>14.691363</v>
+        <v>10.046644</v>
       </c>
       <c r="O7">
-        <v>0.1751938171597716</v>
+        <v>0.1014289402931626</v>
       </c>
       <c r="P7">
-        <v>0.1935929166904518</v>
+        <v>0.1152655367146077</v>
       </c>
       <c r="Q7">
-        <v>2.978556317346</v>
+        <v>0.5163288495326666</v>
       </c>
       <c r="R7">
-        <v>26.807006856114</v>
+        <v>3.097973097196</v>
       </c>
       <c r="S7">
-        <v>0.01701183427555545</v>
+        <v>0.0001797273629611039</v>
       </c>
       <c r="T7">
-        <v>0.01895961785647981</v>
+        <v>0.0001362439179859966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H8">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I8">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J8">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.216224500000001</v>
+        <v>9.756319</v>
       </c>
       <c r="N8">
-        <v>12.432449</v>
+        <v>19.512638</v>
       </c>
       <c r="O8">
-        <v>0.2223845599234924</v>
+        <v>0.295493628717823</v>
       </c>
       <c r="P8">
-        <v>0.1638264648089691</v>
+        <v>0.2238692534330717</v>
       </c>
       <c r="Q8">
-        <v>24.05909296221467</v>
+        <v>5.934046880094</v>
       </c>
       <c r="R8">
-        <v>144.354557773288</v>
+        <v>35.604281280564</v>
       </c>
       <c r="S8">
-        <v>0.137411973683301</v>
+        <v>0.002065564607540656</v>
       </c>
       <c r="T8">
-        <v>0.1020967117258919</v>
+        <v>0.0015658195299146</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H9">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I9">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J9">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>15.240735</v>
       </c>
       <c r="O9">
-        <v>0.1817450525843336</v>
+        <v>0.1538674606504335</v>
       </c>
       <c r="P9">
-        <v>0.2008321720153707</v>
+        <v>0.174857544439726</v>
       </c>
       <c r="Q9">
-        <v>19.66243122748</v>
+        <v>3.089937095370001</v>
       </c>
       <c r="R9">
-        <v>176.96188104732</v>
+        <v>27.80943385833</v>
       </c>
       <c r="S9">
-        <v>0.112300720838625</v>
+        <v>0.001075566949956779</v>
       </c>
       <c r="T9">
-        <v>0.1251586817517378</v>
+        <v>0.001223014566931083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H10">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I10">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J10">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.968023</v>
+        <v>4.769449333333334</v>
       </c>
       <c r="N10">
-        <v>11.904069</v>
+        <v>14.308348</v>
       </c>
       <c r="O10">
-        <v>0.1419554664766847</v>
+        <v>0.1444542650247977</v>
       </c>
       <c r="P10">
-        <v>0.156863827964389</v>
+        <v>0.1641602321849349</v>
       </c>
       <c r="Q10">
-        <v>15.35771982385867</v>
+        <v>2.900903090216</v>
       </c>
       <c r="R10">
-        <v>138.219478414728</v>
+        <v>26.10812781194401</v>
       </c>
       <c r="S10">
-        <v>0.08771463644061324</v>
+        <v>0.001009766669211176</v>
       </c>
       <c r="T10">
-        <v>0.09775759394292514</v>
+        <v>0.001148193839255077</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H11">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I11">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J11">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.7536305</v>
+        <v>2.1338745</v>
       </c>
       <c r="N11">
-        <v>3.507261</v>
+        <v>4.267749</v>
       </c>
       <c r="O11">
-        <v>0.06273588526458686</v>
+        <v>0.06462953079265144</v>
       </c>
       <c r="P11">
-        <v>0.0462163304102329</v>
+        <v>0.04896404999004943</v>
       </c>
       <c r="Q11">
-        <v>6.787200047371999</v>
+        <v>1.297877951637</v>
       </c>
       <c r="R11">
-        <v>40.723200284232</v>
+        <v>7.787267709822</v>
       </c>
       <c r="S11">
-        <v>0.03876465982144529</v>
+        <v>0.0004517744493731204</v>
       </c>
       <c r="T11">
-        <v>0.02880203371551841</v>
+        <v>0.0003424716193153126</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H12">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I12">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J12">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.037346333333333</v>
+        <v>7.928250666666667</v>
       </c>
       <c r="N12">
-        <v>18.112039</v>
+        <v>23.784752</v>
       </c>
       <c r="O12">
-        <v>0.2159852185911309</v>
+        <v>0.2401261745211317</v>
       </c>
       <c r="P12">
-        <v>0.2386682881105867</v>
+        <v>0.2728833832376104</v>
       </c>
       <c r="Q12">
-        <v>23.36676815304089</v>
+        <v>4.822168189984001</v>
       </c>
       <c r="R12">
-        <v>210.300913377368</v>
+        <v>43.399513709856</v>
       </c>
       <c r="S12">
-        <v>0.1334578047290559</v>
+        <v>0.001678534084092297</v>
       </c>
       <c r="T12">
-        <v>0.1487381628954288</v>
+        <v>0.001908641424894745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.870370666666667</v>
+        <v>0.608226</v>
       </c>
       <c r="H13">
-        <v>11.611112</v>
+        <v>1.824678</v>
       </c>
       <c r="I13">
-        <v>0.6179024916593814</v>
+        <v>0.006990217070003677</v>
       </c>
       <c r="J13">
-        <v>0.6232003592639468</v>
+        <v>0.006994348289916998</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.897121</v>
+        <v>3.348881333333333</v>
       </c>
       <c r="N13">
-        <v>14.691363</v>
+        <v>10.046644</v>
       </c>
       <c r="O13">
-        <v>0.1751938171597716</v>
+        <v>0.1014289402931626</v>
       </c>
       <c r="P13">
-        <v>0.1935929166904518</v>
+        <v>0.1152655367146077</v>
       </c>
       <c r="Q13">
-        <v>18.95367346951733</v>
+        <v>2.036876697848</v>
       </c>
       <c r="R13">
-        <v>170.583061225656</v>
+        <v>18.331890280632</v>
       </c>
       <c r="S13">
-        <v>0.108252696146341</v>
+        <v>0.0007090103098296491</v>
       </c>
       <c r="T13">
-        <v>0.1206471752324449</v>
+        <v>0.0008062073096061811</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H14">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I14">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J14">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.216224500000001</v>
+        <v>9.756319</v>
       </c>
       <c r="N14">
-        <v>12.432449</v>
+        <v>19.512638</v>
       </c>
       <c r="O14">
-        <v>0.2223845599234924</v>
+        <v>0.295493628717823</v>
       </c>
       <c r="P14">
-        <v>0.1638264648089691</v>
+        <v>0.2238692534330717</v>
       </c>
       <c r="Q14">
-        <v>0.9930107827525001</v>
+        <v>119.0987747277993</v>
       </c>
       <c r="R14">
-        <v>3.97204313101</v>
+        <v>714.5926483667959</v>
       </c>
       <c r="S14">
-        <v>0.005671517698573292</v>
+        <v>0.04145673582465913</v>
       </c>
       <c r="T14">
-        <v>0.00280928118076074</v>
+        <v>0.03142664546235156</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H15">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I15">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J15">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>15.240735</v>
       </c>
       <c r="O15">
-        <v>0.1817450525843336</v>
+        <v>0.1538674606504335</v>
       </c>
       <c r="P15">
-        <v>0.2008321720153707</v>
+        <v>0.174857544439726</v>
       </c>
       <c r="Q15">
-        <v>0.8115437375250001</v>
+        <v>62.01631525342999</v>
       </c>
       <c r="R15">
-        <v>4.869262425150001</v>
+        <v>558.1468372808699</v>
       </c>
       <c r="S15">
-        <v>0.004635080253389895</v>
+        <v>0.0215870734535787</v>
       </c>
       <c r="T15">
-        <v>0.003443851651147858</v>
+        <v>0.02454640809872313</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H16">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I16">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J16">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.968023</v>
+        <v>4.769449333333334</v>
       </c>
       <c r="N16">
-        <v>11.904069</v>
+        <v>14.308348</v>
       </c>
       <c r="O16">
-        <v>0.1419554664766847</v>
+        <v>0.1444542650247977</v>
       </c>
       <c r="P16">
-        <v>0.156863827964389</v>
+        <v>0.1641602321849349</v>
       </c>
       <c r="Q16">
-        <v>0.633871834135</v>
+        <v>58.22232460073511</v>
       </c>
       <c r="R16">
-        <v>3.80323100481</v>
+        <v>524.000921406616</v>
       </c>
       <c r="S16">
-        <v>0.003620318518555095</v>
+        <v>0.02026643460931286</v>
       </c>
       <c r="T16">
-        <v>0.002689886523256787</v>
+        <v>0.02304472515443309</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H17">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I17">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J17">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.7536305</v>
+        <v>2.1338745</v>
       </c>
       <c r="N17">
-        <v>3.507261</v>
+        <v>4.267749</v>
       </c>
       <c r="O17">
-        <v>0.06273588526458686</v>
+        <v>0.06462953079265144</v>
       </c>
       <c r="P17">
-        <v>0.0462163304102329</v>
+        <v>0.04896404999004943</v>
       </c>
       <c r="Q17">
-        <v>0.2801337042225</v>
+        <v>26.048947187243</v>
       </c>
       <c r="R17">
-        <v>1.12053481689</v>
+        <v>156.293683123458</v>
       </c>
       <c r="S17">
-        <v>0.00159996576981863</v>
+        <v>0.009067300016479228</v>
       </c>
       <c r="T17">
-        <v>0.0007925133916347528</v>
+        <v>0.006873547018363452</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H18">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I18">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J18">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.037346333333333</v>
+        <v>7.928250666666667</v>
       </c>
       <c r="N18">
-        <v>18.112039</v>
+        <v>23.784752</v>
       </c>
       <c r="O18">
-        <v>0.2159852185911309</v>
+        <v>0.2401261745211317</v>
       </c>
       <c r="P18">
-        <v>0.2386682881105867</v>
+        <v>0.2728833832376104</v>
       </c>
       <c r="Q18">
-        <v>0.9644358900183332</v>
+        <v>96.78290963373155</v>
       </c>
       <c r="R18">
-        <v>5.78661534011</v>
+        <v>871.0461867035839</v>
       </c>
       <c r="S18">
-        <v>0.005508314022750716</v>
+        <v>0.03368887317436809</v>
       </c>
       <c r="T18">
-        <v>0.004092661896936361</v>
+        <v>0.03830722265815402</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.159745</v>
+        <v>12.20734733333333</v>
       </c>
       <c r="H19">
-        <v>0.31949</v>
+        <v>36.62204199999999</v>
       </c>
       <c r="I19">
-        <v>0.02550319905538622</v>
+        <v>0.1402965471862934</v>
       </c>
       <c r="J19">
-        <v>0.01714790820907062</v>
+        <v>0.1403794624782939</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.897121</v>
+        <v>3.348881333333333</v>
       </c>
       <c r="N19">
-        <v>14.691363</v>
+        <v>10.046644</v>
       </c>
       <c r="O19">
-        <v>0.1751938171597716</v>
+        <v>0.1014289402931626</v>
       </c>
       <c r="P19">
-        <v>0.1935929166904518</v>
+        <v>0.1152655367146077</v>
       </c>
       <c r="Q19">
-        <v>0.782290594145</v>
+        <v>40.88095761411643</v>
       </c>
       <c r="R19">
-        <v>4.69374356487</v>
+        <v>367.9286185270479</v>
       </c>
       <c r="S19">
-        <v>0.004468002792298594</v>
+        <v>0.01423013010789543</v>
       </c>
       <c r="T19">
-        <v>0.003319713565334123</v>
+        <v>0.01618091408626868</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H20">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I20">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J20">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.216224500000001</v>
+        <v>9.756319</v>
       </c>
       <c r="N20">
-        <v>12.432449</v>
+        <v>19.512638</v>
       </c>
       <c r="O20">
-        <v>0.2223845599234924</v>
+        <v>0.295493628717823</v>
       </c>
       <c r="P20">
-        <v>0.1638264648089691</v>
+        <v>0.2238692534330717</v>
       </c>
       <c r="Q20">
-        <v>0.1739879796053334</v>
+        <v>668.1411680419914</v>
       </c>
       <c r="R20">
-        <v>1.043927877632</v>
+        <v>4008.847008251948</v>
       </c>
       <c r="S20">
-        <v>0.0009937212392955486</v>
+        <v>0.2325712582719854</v>
       </c>
       <c r="T20">
-        <v>0.000738332098613784</v>
+        <v>0.1763027004672956</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H21">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I21">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J21">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>15.240735</v>
       </c>
       <c r="O21">
-        <v>0.1817450525843336</v>
+        <v>0.1538674606504335</v>
       </c>
       <c r="P21">
-        <v>0.2008321720153707</v>
+        <v>0.174857544439726</v>
       </c>
       <c r="Q21">
-        <v>0.14219267072</v>
+        <v>347.9099882075901</v>
       </c>
       <c r="R21">
-        <v>1.27973403648</v>
+        <v>3131.18989386831</v>
       </c>
       <c r="S21">
-        <v>0.0008121243621952545</v>
+        <v>0.1211029458938317</v>
       </c>
       <c r="T21">
-        <v>0.000905109191034409</v>
+        <v>0.137704739748999</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H22">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I22">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J22">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.968023</v>
+        <v>4.769449333333334</v>
       </c>
       <c r="N22">
-        <v>11.904069</v>
+        <v>14.308348</v>
       </c>
       <c r="O22">
-        <v>0.1419554664766847</v>
+        <v>0.1444542650247977</v>
       </c>
       <c r="P22">
-        <v>0.156863827964389</v>
+        <v>0.1641602321849349</v>
       </c>
       <c r="Q22">
-        <v>0.1110623184213333</v>
+        <v>326.6257948812898</v>
       </c>
       <c r="R22">
-        <v>0.999560865792</v>
+        <v>2939.632153931609</v>
       </c>
       <c r="S22">
-        <v>0.0006343253421933586</v>
+        <v>0.1136941947795901</v>
       </c>
       <c r="T22">
-        <v>0.0007069529299346643</v>
+        <v>0.1292803357304035</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H23">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I23">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J23">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.7536305</v>
+        <v>2.1338745</v>
       </c>
       <c r="N23">
-        <v>3.507261</v>
+        <v>4.267749</v>
       </c>
       <c r="O23">
-        <v>0.06273588526458686</v>
+        <v>0.06462953079265144</v>
       </c>
       <c r="P23">
-        <v>0.0462163304102329</v>
+        <v>0.04896404999004943</v>
       </c>
       <c r="Q23">
-        <v>0.049082948608</v>
+        <v>146.133946715459</v>
       </c>
       <c r="R23">
-        <v>0.294497691648</v>
+        <v>876.8036802927541</v>
       </c>
       <c r="S23">
-        <v>0.0002803341278498664</v>
+        <v>0.05086732787842461</v>
       </c>
       <c r="T23">
-        <v>0.0002082874721236562</v>
+        <v>0.03856042804753516</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H24">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I24">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J24">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.037346333333333</v>
+        <v>7.928250666666667</v>
       </c>
       <c r="N24">
-        <v>18.112039</v>
+        <v>23.784752</v>
       </c>
       <c r="O24">
-        <v>0.2159852185911309</v>
+        <v>0.2401261745211317</v>
       </c>
       <c r="P24">
-        <v>0.2386682881105867</v>
+        <v>0.2728833832376104</v>
       </c>
       <c r="Q24">
-        <v>0.1689812989724444</v>
+        <v>542.9497191467769</v>
       </c>
       <c r="R24">
-        <v>1.520831690752</v>
+        <v>4886.547472320992</v>
       </c>
       <c r="S24">
-        <v>0.0009651259024535608</v>
+        <v>0.1889937417423901</v>
       </c>
       <c r="T24">
-        <v>0.00107562876510048</v>
+        <v>0.2149025676356477</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.02798933333333333</v>
+        <v>68.48291533333334</v>
       </c>
       <c r="H25">
-        <v>0.083968</v>
+        <v>205.448746</v>
       </c>
       <c r="I25">
-        <v>0.004468481263435831</v>
+        <v>0.7870601450228751</v>
       </c>
       <c r="J25">
-        <v>0.004506793816705505</v>
+        <v>0.7875252977515439</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.897121</v>
+        <v>3.348881333333333</v>
       </c>
       <c r="N25">
-        <v>14.691363</v>
+        <v>10.046644</v>
       </c>
       <c r="O25">
-        <v>0.1751938171597716</v>
+        <v>0.1014289402931626</v>
       </c>
       <c r="P25">
-        <v>0.1935929166904518</v>
+        <v>0.1152655367146077</v>
       </c>
       <c r="Q25">
-        <v>0.1370671520426667</v>
+        <v>229.3411568120471</v>
       </c>
       <c r="R25">
-        <v>1.233604368384</v>
+        <v>2064.070411308424</v>
       </c>
       <c r="S25">
-        <v>0.0007828502894482424</v>
+        <v>0.07983067645665311</v>
       </c>
       <c r="T25">
-        <v>0.000872483359898512</v>
+        <v>0.09077452612166292</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H26">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I26">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J26">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.216224500000001</v>
+        <v>9.756319</v>
       </c>
       <c r="N26">
-        <v>12.432449</v>
+        <v>19.512638</v>
       </c>
       <c r="O26">
-        <v>0.2223845599234924</v>
+        <v>0.295493628717823</v>
       </c>
       <c r="P26">
-        <v>0.1638264648089691</v>
+        <v>0.2238692534330717</v>
       </c>
       <c r="Q26">
-        <v>9.929753502728502</v>
+        <v>54.22916905000965</v>
       </c>
       <c r="R26">
-        <v>59.57852101637101</v>
+        <v>325.375014300058</v>
       </c>
       <c r="S26">
-        <v>0.05671315328227541</v>
+        <v>0.01887646905213945</v>
       </c>
       <c r="T26">
-        <v>0.04213771410540807</v>
+        <v>0.01430947441187057</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,7 +2084,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H27">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I27">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J27">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>15.240735</v>
       </c>
       <c r="O27">
-        <v>0.1817450525843336</v>
+        <v>0.1538674606504335</v>
       </c>
       <c r="P27">
-        <v>0.2008321720153707</v>
+        <v>0.174857544439726</v>
       </c>
       <c r="Q27">
-        <v>8.115147801285001</v>
+        <v>28.237849225765</v>
       </c>
       <c r="R27">
-        <v>73.036330211565</v>
+        <v>254.140643031885</v>
       </c>
       <c r="S27">
-        <v>0.0463491486506823</v>
+        <v>0.009829228371867112</v>
       </c>
       <c r="T27">
-        <v>0.05165593152131864</v>
+        <v>0.01117670032625011</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H28">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I28">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J28">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.968023</v>
+        <v>4.769449333333334</v>
       </c>
       <c r="N28">
-        <v>11.904069</v>
+        <v>14.308348</v>
       </c>
       <c r="O28">
-        <v>0.1419554664766847</v>
+        <v>0.1444542650247977</v>
       </c>
       <c r="P28">
-        <v>0.156863827964389</v>
+        <v>0.1641602321849349</v>
       </c>
       <c r="Q28">
-        <v>6.338492164039001</v>
+        <v>26.51033388440755</v>
       </c>
       <c r="R28">
-        <v>57.046429476351</v>
+        <v>238.593004959668</v>
       </c>
       <c r="S28">
-        <v>0.03620189338827681</v>
+        <v>0.009227902730160198</v>
       </c>
       <c r="T28">
-        <v>0.04034685814621486</v>
+        <v>0.01049293999007922</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H29">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I29">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J29">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.7536305</v>
+        <v>2.1338745</v>
       </c>
       <c r="N29">
-        <v>3.507261</v>
+        <v>4.267749</v>
       </c>
       <c r="O29">
-        <v>0.06273588526458686</v>
+        <v>0.06462953079265144</v>
       </c>
       <c r="P29">
-        <v>0.0462163304102329</v>
+        <v>0.04896404999004943</v>
       </c>
       <c r="Q29">
-        <v>2.8012370852865</v>
+        <v>11.8608504900265</v>
       </c>
       <c r="R29">
-        <v>16.807422511719</v>
+        <v>71.165102940159</v>
       </c>
       <c r="S29">
-        <v>0.01599908680051263</v>
+        <v>0.004128607926862533</v>
       </c>
       <c r="T29">
-        <v>0.01188727669914814</v>
+        <v>0.003129727774982871</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H30">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I30">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J30">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.037346333333333</v>
+        <v>7.928250666666667</v>
       </c>
       <c r="N30">
-        <v>18.112039</v>
+        <v>23.784752</v>
       </c>
       <c r="O30">
-        <v>0.2159852185911309</v>
+        <v>0.2401261745211317</v>
       </c>
       <c r="P30">
-        <v>0.2386682881105867</v>
+        <v>0.2728833832376104</v>
       </c>
       <c r="Q30">
-        <v>9.644014771442333</v>
+        <v>44.06810044582577</v>
       </c>
       <c r="R30">
-        <v>86.79613294298099</v>
+        <v>396.612904012432</v>
       </c>
       <c r="S30">
-        <v>0.05508117475816979</v>
+        <v>0.01533953311150827</v>
       </c>
       <c r="T30">
-        <v>0.0613877379467232</v>
+        <v>0.01744240323305785</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.597393</v>
+        <v>5.558363666666666</v>
       </c>
       <c r="H31">
-        <v>4.792179</v>
+        <v>16.675091</v>
       </c>
       <c r="I31">
-        <v>0.2550228905360453</v>
+        <v>0.06388113724836089</v>
       </c>
       <c r="J31">
-        <v>0.2572094450951073</v>
+        <v>0.06391889101532451</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.897121</v>
+        <v>3.348881333333333</v>
       </c>
       <c r="N31">
-        <v>14.691363</v>
+        <v>10.046644</v>
       </c>
       <c r="O31">
-        <v>0.1751938171597716</v>
+        <v>0.1014289402931626</v>
       </c>
       <c r="P31">
-        <v>0.1935929166904518</v>
+        <v>0.1152655367146077</v>
       </c>
       <c r="Q31">
-        <v>7.822626805553001</v>
+        <v>18.61430032717822</v>
       </c>
       <c r="R31">
-        <v>70.403641249977</v>
+        <v>167.528702944604</v>
       </c>
       <c r="S31">
-        <v>0.04467843365612838</v>
+        <v>0.006479396055823324</v>
       </c>
       <c r="T31">
-        <v>0.04979392667629444</v>
+        <v>0.007367645279083894</v>
       </c>
     </row>
   </sheetData>
